--- a/biology/Botanique/Skimmia_japonica/Skimmia_japonica.xlsx
+++ b/biology/Botanique/Skimmia_japonica/Skimmia_japonica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Skimmia du Japon (Skimmia japonica ) est une espèce de petit arbrisseau sempervirent de la famille des Rutacées, dont de nombreux cultivars sont utilisés comme arbustes d'ornement. Il est originaire du Japon, de Corée et  du nord-est de la Chine.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Skimmia japonica est un arbuste dioïque de forme arrondie qui mesure de 1 m à 1,5 m de hauteur à croissance lente[2]. Ses feuilles persistantes, de forme oblongue ou ovale, mesurent jusqu'à 12 cm de longueur, et de 7 à 10 cm en moyenne. Le dessous des feuilles est d'un vert plus clair, tirant sur le jaune, que le dessus. Il fleurit à la fin de l'hiver. Ses fleurs parfumées à quatre ou cinq tépales sont généralement blanches, mais il existe des variétés tirant sur le rose.  Ses boutons sont teintés de rouge. Ses baies sont rouges.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Skimmia japonica est un arbuste dioïque de forme arrondie qui mesure de 1 m à 1,5 m de hauteur à croissance lente. Ses feuilles persistantes, de forme oblongue ou ovale, mesurent jusqu'à 12 cm de longueur, et de 7 à 10 cm en moyenne. Le dessous des feuilles est d'un vert plus clair, tirant sur le jaune, que le dessus. Il fleurit à la fin de l'hiver. Ses fleurs parfumées à quatre ou cinq tépales sont généralement blanches, mais il existe des variétés tirant sur le rose.  Ses boutons sont teintés de rouge. Ses baies sont rouges.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Synonymes:
 Skimmia oblata T.Moore
